--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1033.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1033.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.754282566943435</v>
+        <v>1.149822592735291</v>
       </c>
       <c r="B1">
-        <v>3.412196380867638</v>
+        <v>1.042942404747009</v>
       </c>
       <c r="C1">
-        <v>2.872420006609253</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.303096807385717</v>
+        <v>1.995120406150818</v>
       </c>
       <c r="E1">
-        <v>1.353359662620944</v>
+        <v>0.9888195395469666</v>
       </c>
     </row>
   </sheetData>
